--- a/analysis/xlsx/2022/2022_연령대별_판매량.xlsx
+++ b/analysis/xlsx/2022/2022_연령대별_판매량.xlsx
@@ -435,7 +435,7 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>974483100</v>
+        <v>1035879100</v>
       </c>
       <c r="D3" t="n">
-        <v>1337368466.666687</v>
+        <v>1405122466.666687</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>992600100</v>
+        <v>935888100</v>
       </c>
       <c r="D4" t="n">
-        <v>1345721666.666687</v>
+        <v>1274147800</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>643151000</v>
+        <v>638467000</v>
       </c>
       <c r="D5" t="n">
-        <v>874559333.333313</v>
+        <v>878379200</v>
       </c>
     </row>
   </sheetData>
